--- a/HK/Content/ExcelTemplates/sample-container.xlsx
+++ b/HK/Content/ExcelTemplates/sample-container.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="149">
   <si>
     <t>BuyerName</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>Letter of Credit</t>
+  </si>
+  <si>
+    <t>PartyName</t>
+  </si>
+  <si>
+    <t>Punit</t>
+  </si>
+  <si>
+    <t>Prasun</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K74" totalsRowShown="0">
-  <autoFilter ref="A1:K74"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L74" totalsRowShown="0">
+  <autoFilter ref="A1:L74"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="BuyerName"/>
+    <tableColumn id="12" name="PartyName"/>
     <tableColumn id="2" name="CartonNumber"/>
     <tableColumn id="3" name="ProductBuyerName"/>
     <tableColumn id="4" name="Quantity"/>
@@ -809,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K73"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,1906 +840,2128 @@
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>120</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>120</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>120</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>120</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>120</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>156</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>120</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>162</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>120</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>140</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>600</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>140</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1000</v>
       </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>140</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>500</v>
       </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>140</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>617</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>140</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1200</v>
       </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>140</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>600</v>
       </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>140</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>120</v>
       </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>140</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>340</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>140</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>250</v>
       </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>140</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>140</v>
       </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>140</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>120</v>
       </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>140</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
       <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>140</v>
       </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>140</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1800</v>
       </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>140</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
         <v>33</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1200</v>
       </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>140</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>160</v>
       </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>140</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>210</v>
       </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>140</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>160</v>
       </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>140</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>210</v>
       </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>140</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>128</v>
       </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>140</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
       <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>128</v>
       </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>140</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
       <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>71</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>300</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>48</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>140</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>37</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>300</v>
       </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>140</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>37</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>360</v>
       </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>140</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
       <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>33</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>360</v>
       </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>140</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
       <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>33</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>300</v>
       </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>112</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
       <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>33</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>300</v>
       </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>112</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
       <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1200</v>
       </c>
-      <c r="E43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>112</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
         <v>36</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>600</v>
       </c>
-      <c r="E44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>112</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
       <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>82</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>208</v>
       </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>112</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
       <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
         <v>83</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>82</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>300</v>
       </c>
-      <c r="E46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>112</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>80</v>
       </c>
       <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>50</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>250</v>
       </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>112</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
       <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
         <v>85</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>86</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>480</v>
       </c>
-      <c r="E48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>112</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
         <v>50</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>240</v>
       </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>112</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>87</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>61</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>120</v>
       </c>
-      <c r="E50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>112</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
       <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>89</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>250</v>
       </c>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>112</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
       <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
         <v>91</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>90</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>260</v>
       </c>
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>112</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
       <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
         <v>92</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>90</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>180</v>
       </c>
-      <c r="E53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>112</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>88</v>
       </c>
       <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>320</v>
       </c>
-      <c r="E54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>112</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
       <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
         <v>95</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>10</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>48</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>112</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
       <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
         <v>96</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>97</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>48</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>112</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
       <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
         <v>98</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>97</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>6</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>48</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>112</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
         <v>99</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>48</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>112</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
         <v>100</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>7</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>48</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>112</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
         <v>101</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>3</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>48</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>112</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
       <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
         <v>102</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>97</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>14</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>48</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>112</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
       <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>103</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>100</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>13</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>48</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>112</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="s">
         <v>101</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>51</v>
       </c>
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>112</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
       <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
         <v>104</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>105</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>48</v>
       </c>
-      <c r="E64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>112</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
         <v>106</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>17</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>48</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>112</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>107</v>
       </c>
       <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>61</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>580</v>
       </c>
-      <c r="E66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>112</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
       <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>61</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>520</v>
       </c>
-      <c r="E67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>112</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
       <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
         <v>110</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>61</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>240</v>
       </c>
-      <c r="E68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>112</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
       <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
         <v>111</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>61</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>280</v>
       </c>
-      <c r="E69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>112</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
         <v>61</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>270</v>
       </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>112</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
       <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
         <v>114</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>12</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>14</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>112</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
       <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
         <v>115</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>19</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>90</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>14</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>112</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>113</v>
       </c>
       <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
         <v>116</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>144</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>14</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>112</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
       <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
         <v>117</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>19</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>12</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>14</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="K74">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>112</v>
+      </c>
+      <c r="L74">
         <v>0</v>
       </c>
     </row>
@@ -2745,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,9 +2991,6 @@
       <c r="A1" t="s">
         <v>118</v>
       </c>
-      <c r="B1">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/HK/Content/ExcelTemplates/sample-container.xlsx
+++ b/HK/Content/ExcelTemplates/sample-container.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Items" sheetId="2" r:id="rId1"/>
     <sheet name="Container" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="161">
   <si>
     <t>BuyerName</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>23 CTNS</t>
+  </si>
+  <si>
+    <t>JobNumber</t>
   </si>
 </sst>
 </file>
@@ -547,15 +550,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S74" totalsRowShown="0">
-  <autoFilter ref="A1:S74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T74" totalsRowShown="0">
+  <autoFilter ref="A1:T74"/>
   <sortState ref="A2:S74">
     <sortCondition ref="A1:A74"/>
   </sortState>
-  <tableColumns count="19">
+  <tableColumns count="20">
     <tableColumn id="1" name="BuyerName"/>
     <tableColumn id="12" name="PartyName"/>
     <tableColumn id="13" name="PartyPhone"/>
+    <tableColumn id="20" name="JobNumber"/>
     <tableColumn id="14" name="BillOnBoardingDate"/>
     <tableColumn id="15" name="BillDeliveryDate"/>
     <tableColumn id="16" name="BillNumber"/>
@@ -862,29 +866,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="2" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="35.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,55 +900,58 @@
         <v>149</v>
       </c>
       <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -953,70 +961,73 @@
       <c r="C2">
         <v>204343</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
         <v>156</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>157</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1023</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>34545</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>158</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>159</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1200</v>
       </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>140</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1800</v>
       </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>140</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1026,8 +1037,8 @@
       <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
-        <v>88</v>
+      <c r="D4">
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
@@ -1045,106 +1056,109 @@
         <v>88</v>
       </c>
       <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
         <v>89</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>90</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>250</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>112</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>91</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>260</v>
       </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>112</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>92</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>180</v>
       </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>112</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>320</v>
       </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>112</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1154,8 +1168,8 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" t="s">
-        <v>107</v>
+      <c r="D8">
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>107</v>
@@ -1173,132 +1187,135 @@
         <v>107</v>
       </c>
       <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
         <v>108</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>580</v>
       </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>112</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>520</v>
       </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>112</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>110</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>240</v>
       </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>112</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>280</v>
       </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>112</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>61</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>270</v>
       </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>112</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1327,28 +1344,31 @@
         <v>38</v>
       </c>
       <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
         <v>39</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>617</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>140</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1377,80 +1397,83 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
         <v>52</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>140</v>
       </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>140</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>53</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>120</v>
       </c>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>140</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>54</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>140</v>
       </c>
-      <c r="M16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>140</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1479,28 +1502,31 @@
         <v>69</v>
       </c>
       <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
         <v>70</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>71</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>300</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>48</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>140</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1529,54 +1555,57 @@
         <v>57</v>
       </c>
       <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
         <v>58</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>59</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>160</v>
       </c>
-      <c r="M18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>140</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>60</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>210</v>
       </c>
-      <c r="M19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>140</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1605,132 +1634,135 @@
         <v>72</v>
       </c>
       <c r="J20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>360</v>
       </c>
-      <c r="M20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>140</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>76</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>33</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>300</v>
       </c>
-      <c r="M21" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>112</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>77</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>33</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>300</v>
       </c>
-      <c r="M22" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>112</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>73</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>300</v>
       </c>
-      <c r="M23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>140</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>74</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>37</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>360</v>
       </c>
-      <c r="M24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="P24">
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>140</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1759,28 +1791,31 @@
         <v>67</v>
       </c>
       <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" t="s">
         <v>68</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>59</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>128</v>
       </c>
-      <c r="M25" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="P25">
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>140</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1809,80 +1844,83 @@
         <v>44</v>
       </c>
       <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
         <v>49</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>50</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>250</v>
       </c>
-      <c r="M26" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>140</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>19</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>120</v>
       </c>
-      <c r="M27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="P27">
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>140</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>47</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>340</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>48</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>140</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -1911,106 +1949,109 @@
         <v>113</v>
       </c>
       <c r="J29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" t="s">
         <v>114</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>12</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>14</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>112</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>115</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>19</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>90</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>14</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="P30">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>112</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>116</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>19</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>144</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>14</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>112</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>117</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>19</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>12</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>14</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="P32">
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>112</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2039,28 +2080,31 @@
         <v>65</v>
       </c>
       <c r="J33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" t="s">
         <v>66</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>59</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>128</v>
       </c>
-      <c r="M33" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="P33">
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>140</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2088,52 +2132,55 @@
       <c r="I34" t="s">
         <v>78</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" t="s">
         <v>36</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>600</v>
       </c>
-      <c r="M34" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="P34">
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>112</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>79</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>37</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1200</v>
       </c>
-      <c r="M35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="P35">
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>112</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -2162,155 +2209,158 @@
         <v>80</v>
       </c>
       <c r="J36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" t="s">
         <v>87</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>61</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>120</v>
       </c>
-      <c r="M36" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="P36">
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>112</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>85</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>86</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>480</v>
       </c>
-      <c r="M37" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="P37">
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>112</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>81</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>82</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>208</v>
       </c>
-      <c r="M38" t="s">
-        <v>34</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="P38">
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>112</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>83</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>82</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>300</v>
       </c>
-      <c r="M39" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="P39">
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>112</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>84</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>50</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>250</v>
       </c>
-      <c r="M40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="P40">
+      <c r="N40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>112</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>50</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>240</v>
       </c>
-      <c r="M41" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="N41" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>112</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2339,54 +2389,57 @@
         <v>62</v>
       </c>
       <c r="J42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" t="s">
         <v>63</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>59</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>160</v>
       </c>
-      <c r="M42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="P42">
+      <c r="N42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>140</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>64</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>61</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>210</v>
       </c>
-      <c r="M43" t="s">
-        <v>34</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="P43">
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>140</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2415,392 +2468,395 @@
         <v>11</v>
       </c>
       <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
         <v>12</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>13</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>120</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>14</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="P44">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>120</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>15</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>13</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>90</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>14</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="P45">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>120</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>20</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>13</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>120</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>14</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="P46">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>120</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>22</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>13</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>90</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>14</v>
       </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>120</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>24</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>13</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>120</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>14</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="P48">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>120</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>17</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>60</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>14</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="P49">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>120</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>23</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>17</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>60</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>14</v>
       </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="P50">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>120</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>25</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>17</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>60</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>14</v>
       </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="P51">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>120</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>18</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>19</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>120</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>14</v>
       </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="P52">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>120</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>21</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>19</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>120</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>14</v>
       </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="P53">
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>120</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>26</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>19</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>60</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>14</v>
       </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="P54">
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>120</v>
       </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>27</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>19</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>156</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>14</v>
       </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="P55">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>120</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>28</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>19</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>162</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>14</v>
       </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="P56">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>120</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>29</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>19</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>60</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>14</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="P57">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>120</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>30</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>19</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>60</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>14</v>
       </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="P58">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>140</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2828,274 +2884,277 @@
       <c r="I59" t="s">
         <v>94</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" t="s">
         <v>106</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>17</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>48</v>
       </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="P59">
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>112</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>101</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>3</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>48</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="P60">
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>112</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>101</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>51</v>
       </c>
-      <c r="M61" t="s">
-        <v>34</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="P61">
+      <c r="N61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>112</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>99</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>5</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>48</v>
       </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="P62">
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>112</v>
       </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>95</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>13</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>10</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>48</v>
       </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="P63">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>112</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>104</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>105</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>48</v>
       </c>
-      <c r="M64" t="s">
-        <v>34</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="P64">
+      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>112</v>
       </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>100</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>7</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>48</v>
       </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="P65">
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>112</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>103</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>100</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>13</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>48</v>
       </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="P66">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>112</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>96</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>97</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>8</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>48</v>
       </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="P67">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>112</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>98</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>97</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>6</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>48</v>
       </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="P68">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>112</v>
       </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>102</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>97</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>14</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>48</v>
       </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="P69">
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>112</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -3124,77 +3183,80 @@
         <v>31</v>
       </c>
       <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" t="s">
         <v>35</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>36</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>1000</v>
       </c>
-      <c r="M70" t="s">
-        <v>34</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="P70">
+      <c r="N70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>140</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>32</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>33</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>600</v>
       </c>
-      <c r="M71" t="s">
-        <v>34</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="P71">
+      <c r="N71" t="s">
+        <v>34</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>140</v>
       </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>37</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>500</v>
       </c>
-      <c r="M72" t="s">
-        <v>34</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="P72">
+      <c r="N72" t="s">
+        <v>34</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>140</v>
       </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -3223,47 +3285,50 @@
         <v>42</v>
       </c>
       <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73" t="s">
         <v>43</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>36</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>1200</v>
       </c>
-      <c r="M73" t="s">
-        <v>34</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="P73">
+      <c r="N73" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>140</v>
       </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>37</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>600</v>
       </c>
-      <c r="M74" t="s">
-        <v>34</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="P74">
+      <c r="N74" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>140</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>0</v>
       </c>
     </row>
